--- a/刷单费用明细.xlsx
+++ b/刷单费用明细.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,23 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>20064271726</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>迅和艺</t>
   </si>
   <si>
@@ -140,6 +123,87 @@
   </si>
   <si>
     <t>882228246925617000</t>
+  </si>
+  <si>
+    <t>王大林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20085802118     </t>
+  </si>
+  <si>
+    <t>882230263357001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20109987549     </t>
+  </si>
+  <si>
+    <t>882230925824889000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20064271726 </t>
+  </si>
+  <si>
+    <t>冯小姐</t>
+  </si>
+  <si>
+    <t>20295775210     </t>
+  </si>
+  <si>
+    <t>882266551854324000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龚积新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周美艳</t>
+  </si>
+  <si>
+    <t>20467703211     </t>
+  </si>
+  <si>
+    <t>李小梅</t>
+  </si>
+  <si>
+    <t>20423841260     </t>
+  </si>
+  <si>
+    <t>刘志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘晓丽</t>
+  </si>
+  <si>
+    <t>20321749812     </t>
+  </si>
+  <si>
+    <t>李深江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>518088282925</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882342767175566000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3937050152834</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -149,7 +213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,20 +227,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF50545B"/>
-      <name val="Microsoft Yahei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -187,23 +237,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF50545B"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -212,15 +245,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF50545B"/>
       <name val="宋体"/>
@@ -229,13 +253,64 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Simsun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF50545B"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Simsun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF50545B"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Simsun"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -257,58 +332,81 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -325,6 +423,110 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12658725" y="2971800"/>
+          <a:ext cx="10287000" cy="18288000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12620625" y="21850350"/>
+          <a:ext cx="5657850" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -614,210 +816,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="2" customWidth="1"/>
     <col min="5" max="6" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="11" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16" style="3" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:12" s="9" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="9">
         <v>59</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>42553.729861111111</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="9">
         <v>1</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="9">
         <v>59</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="9">
         <v>13229439197</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:12" s="9" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>68</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="10">
         <v>42553.729861111111</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="9">
         <v>65</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="9">
+        <v>13207893475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="9" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9">
+        <v>78</v>
+      </c>
+      <c r="D4" s="10">
+        <v>42553.729861111111</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>65</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="6">
+      <c r="H4" s="4">
+        <v>20064271726</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="9">
         <v>13207893475</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="12" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A4" s="12" t="s">
+    <row r="5" spans="1:12" s="9" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C5" s="9">
         <v>78</v>
       </c>
-      <c r="D4" s="15">
-        <v>42553.729861111111</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="D5" s="10"/>
+      <c r="E5" s="9">
         <v>1</v>
       </c>
-      <c r="F4" s="12">
-        <v>65</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="F5" s="9">
+        <v>79</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="14">
-        <v>20064271726</v>
-      </c>
-      <c r="I4" s="16" t="s">
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="9">
+        <v>13207893475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="9" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9">
+        <v>69</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>55</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L6" s="9">
         <v>13207893475</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="12" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="12" t="s">
+    <row r="7" spans="1:12" s="9" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12">
-        <v>78</v>
-      </c>
-      <c r="D5" s="13">
-        <v>42553.729861111111</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="C7" s="9">
+        <v>69</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="F5" s="12">
-        <v>79</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="12" t="s">
+      <c r="F7" s="9">
+        <v>55</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L7" s="9">
+        <v>13207893475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="9" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9">
+        <v>69</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>69</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="9">
+        <v>13207893475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="13" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="13">
+        <v>69</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13">
+        <v>69</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="13">
+        <v>13207893475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="17" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="17">
+        <v>69</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>59.9</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="17">
+        <v>13207893475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="13" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="13">
+        <v>69</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13">
+        <v>69</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="13">
         <v>13207893475</v>
       </c>
     </row>
@@ -829,5 +1245,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/刷单费用明细.xlsx
+++ b/刷单费用明细.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
   <si>
     <t>商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,98 +111,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>蒋波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882215557360081000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882228246925617000</t>
+  </si>
+  <si>
+    <t>王大林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20085802118     </t>
+  </si>
+  <si>
+    <t>882230263357001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20109987549     </t>
+  </si>
+  <si>
+    <t>882230925824889000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20064271726 </t>
+  </si>
+  <si>
+    <t>冯小姐</t>
+  </si>
+  <si>
+    <t>20295775210     </t>
+  </si>
+  <si>
+    <t>882266551854324000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龚积新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周美艳</t>
+  </si>
+  <si>
+    <t>20467703211     </t>
+  </si>
+  <si>
+    <t>李小梅</t>
+  </si>
+  <si>
+    <t>20423841260     </t>
+  </si>
+  <si>
+    <t>刘志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘晓丽</t>
+  </si>
+  <si>
+    <t>20321749812     </t>
+  </si>
+  <si>
+    <t>李深江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>518088282925</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882342767175566000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3937050152834</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙大华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>20128937351     </t>
-  </si>
-  <si>
-    <t>蒋波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>882215557360081000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>882228246925617000</t>
-  </si>
-  <si>
-    <t>王大林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20085802118     </t>
-  </si>
-  <si>
-    <t>882230263357001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文静</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20109987549     </t>
-  </si>
-  <si>
-    <t>882230925824889000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈健</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20064271726 </t>
-  </si>
-  <si>
-    <t>冯小姐</t>
-  </si>
-  <si>
-    <t>20295775210     </t>
-  </si>
-  <si>
-    <t>882266551854324000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龚积新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周美艳</t>
-  </si>
-  <si>
-    <t>20467703211     </t>
-  </si>
-  <si>
-    <t>李小梅</t>
-  </si>
-  <si>
-    <t>20423841260     </t>
-  </si>
-  <si>
-    <t>刘志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘晓丽</t>
-  </si>
-  <si>
-    <t>20321749812     </t>
-  </si>
-  <si>
-    <t>李深江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>518088282925</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>882342767175566000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3937050152834</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-07-06 </t>
+  </si>
+  <si>
+    <t>2016-07-07 </t>
+  </si>
+  <si>
+    <t>2016-07-20 </t>
+  </si>
+  <si>
+    <t>许小姐</t>
+  </si>
+  <si>
+    <t>882393922531546000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁乐业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/10508367526.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄萍</t>
+  </si>
+  <si>
+    <t>李广龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>882434551324405298</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,12 +326,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -311,6 +345,24 @@
       <sz val="11"/>
       <name val="Simsun"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,10 +386,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -350,62 +401,92 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -437,8 +518,8 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -816,424 +897,574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="28" customWidth="1"/>
     <col min="5" max="6" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16" style="2" customWidth="1"/>
     <col min="9" max="9" width="21.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="17" t="s">
         <v>6</v>
       </c>
+      <c r="M1" s="17"/>
     </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>59</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="26">
         <v>42553.729861111111</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>1</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>59</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>13229439197</v>
       </c>
+      <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>68</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="26">
         <v>42553.729861111111</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>65</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="8">
+        <v>13207893475</v>
+      </c>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8">
+        <v>78</v>
+      </c>
+      <c r="D4" s="26">
+        <v>42553.729861111111</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>65</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3">
+        <v>20064271726</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="8">
+        <v>13207893475</v>
+      </c>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8">
+        <v>78</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>79</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="8">
+        <v>13207893475</v>
+      </c>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8">
+        <v>69</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>55</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="8">
+        <v>13207893475</v>
+      </c>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8">
+        <v>69</v>
+      </c>
+      <c r="D7" s="30">
+        <v>42558</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>55</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="8">
+        <v>13207893475</v>
+      </c>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8">
+        <v>69</v>
+      </c>
+      <c r="D8" s="30">
+        <v>42563</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>69</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="9">
+      <c r="H8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="8">
         <v>13207893475</v>
       </c>
+      <c r="M8" s="8"/>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A4" s="9" t="s">
+    <row r="9" spans="1:13" s="8" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9">
-        <v>78</v>
-      </c>
-      <c r="D4" s="10">
-        <v>42553.729861111111</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C9" s="8">
+        <v>69</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="8">
         <v>1</v>
       </c>
-      <c r="F4" s="9">
-        <v>65</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="4">
-        <v>20064271726</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="F9" s="8">
+        <v>69</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L9" s="8">
         <v>13207893475</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A5" s="9" t="s">
+    <row r="10" spans="1:13" s="10" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9">
-        <v>78</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9">
+      <c r="C10" s="10">
+        <v>69</v>
+      </c>
+      <c r="D10" s="30">
+        <v>42573</v>
+      </c>
+      <c r="E10" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="9">
-        <v>79</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="9" t="s">
+      <c r="F10" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L10" s="10">
         <v>13207893475</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A6" s="9" t="s">
+    <row r="11" spans="1:13" s="8" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C11" s="8">
         <v>69</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9">
+      <c r="D11" s="30">
+        <v>42571</v>
+      </c>
+      <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F6" s="9">
-        <v>55</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="F11" s="8">
+        <v>69</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L11" s="8">
         <v>13207893475</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="9" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A7" s="9" t="s">
+    <row r="12" spans="1:13" ht="21" customHeight="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="1:13" s="6" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9">
-        <v>69</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9">
+      <c r="C13" s="6">
+        <v>49.9</v>
+      </c>
+      <c r="D13" s="32">
+        <v>42580</v>
+      </c>
+      <c r="E13" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="9">
-        <v>55</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="9" t="s">
+      <c r="F13" s="6">
+        <v>49.9</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="33">
+        <v>20597915828</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L13" s="6">
         <v>13207893475</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="9" t="s">
+    <row r="14" spans="1:13" s="6" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="9">
-        <v>69</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9">
+      <c r="B14" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="6">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D14" s="32">
+        <v>42580</v>
+      </c>
+      <c r="E14" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="9">
-        <v>69</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="9" t="s">
+      <c r="F14" s="6">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="33">
+        <v>20597884932</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="9">
+      <c r="K14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="6">
         <v>13207893475</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="13" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A9" s="13" t="s">
+    <row r="15" spans="1:13" s="6" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="13">
-        <v>69</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13">
+      <c r="B15" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="6">
+        <v>39.9</v>
+      </c>
+      <c r="D15" s="32">
+        <v>42586</v>
+      </c>
+      <c r="E15" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="13">
-        <v>69</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="13" t="s">
+      <c r="F15" s="6">
+        <v>39.9</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="33">
+        <v>20833401049</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="13">
-        <v>13207893475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="17" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="17">
-        <v>69</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="17">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19">
-        <v>59.9</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="17" t="s">
+      <c r="K15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="17">
-        <v>13207893475</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="13" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="13">
-        <v>69</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13">
-        <v>69</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="13">
+      <c r="L15" s="6">
         <v>13207893475</v>
       </c>
     </row>
@@ -1242,9 +1473,11 @@
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" display="http://order.shop.jd.com/order/order_orderInfoPage.action?orderId=20064271726"/>
     <hyperlink ref="H4" r:id="rId2" display="http://order.shop.jd.com/order/order_orderInfoPage.action?orderId=20064271726"/>
+    <hyperlink ref="B14" r:id="rId3"/>
+    <hyperlink ref="B15" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/刷单费用明细.xlsx
+++ b/刷单费用明细.xlsx
@@ -900,7 +900,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/刷单费用明细.xlsx
+++ b/刷单费用明细.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="9月" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="80">
   <si>
     <t>商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +245,65 @@
   <si>
     <t>882434551324405298</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23173439234     </t>
+  </si>
+  <si>
+    <t>882734930897900000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垫付人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙大华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23121967359     </t>
+  </si>
+  <si>
+    <t>吕露</t>
+  </si>
+  <si>
+    <t>23094002885     </t>
+  </si>
+  <si>
+    <t>882734935341647000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈健</t>
+  </si>
+  <si>
+    <t>红心火龙果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23111144692     </t>
+  </si>
+  <si>
+    <t>岑先生</t>
+  </si>
+  <si>
+    <t>23154460567     </t>
+  </si>
+  <si>
+    <t>梁乐业</t>
   </si>
 </sst>
 </file>
@@ -253,7 +313,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,6 +423,35 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF50545B"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -386,7 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -476,17 +565,42 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -518,8 +632,8 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -897,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1354,120 +1468,121 @@
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
     </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:13" s="8" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="8">
         <v>49.9</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="31">
         <v>42580</v>
       </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
         <v>49.9</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="32">
         <v>20597915828</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="8">
         <v>13207893475</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="6" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:13" s="8" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="8">
         <v>18.899999999999999</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="31">
         <v>42580</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
         <v>16.899999999999999</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="32">
         <v>20597884932</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="8">
         <v>13207893475</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:13" s="8" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="8">
         <v>39.9</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="31">
         <v>42586</v>
       </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
         <v>39.9</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="32">
         <v>20833401049</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="8">
         <v>13207893475</v>
       </c>
     </row>
+    <row r="17" ht="25.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1480,4 +1595,239 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
   <drawing r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="21" style="35" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="28.625" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="10" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="17" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="36" customFormat="1" ht="14.25">
+      <c r="A2" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="36">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="36">
+        <v>1</v>
+      </c>
+      <c r="I2" s="36">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J2" s="36">
+        <v>3</v>
+      </c>
+      <c r="K2" s="36">
+        <v>20</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="36" customFormat="1" ht="14.25">
+      <c r="A3" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="36">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="39">
+        <v>8.8273493087946496E+17</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="41">
+        <v>42623.740393518521</v>
+      </c>
+      <c r="H3" s="36">
+        <v>1</v>
+      </c>
+      <c r="I3" s="36">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J3" s="36">
+        <v>3</v>
+      </c>
+      <c r="K3" s="36">
+        <v>20</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="36" customFormat="1" ht="14.25">
+      <c r="A4" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="36">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="41">
+        <v>42623.705057870371</v>
+      </c>
+      <c r="H4" s="36">
+        <v>1</v>
+      </c>
+      <c r="I4" s="36">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J4" s="36">
+        <v>3</v>
+      </c>
+      <c r="K4" s="36">
+        <v>20</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="36" customFormat="1" ht="14.25">
+      <c r="A5" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="36">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="41">
+        <v>42625.409444444442</v>
+      </c>
+      <c r="H5" s="36">
+        <v>1</v>
+      </c>
+      <c r="I5" s="36">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J5" s="36">
+        <v>3</v>
+      </c>
+      <c r="K5" s="36">
+        <v>20</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="36" customFormat="1" ht="14.25">
+      <c r="A6" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="36">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="41">
+        <v>42625.406944444447</v>
+      </c>
+      <c r="H6" s="36">
+        <v>1</v>
+      </c>
+      <c r="I6" s="36">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J6" s="36">
+        <v>3</v>
+      </c>
+      <c r="K6" s="36">
+        <v>20</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>